--- a/Data/Input/Workitem.xlsx
+++ b/Data/Input/Workitem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayavignesh\Documents\UiPath\Acme_Worklist\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA79180-DB56-4803-9546-BCD0FF22CA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDACDF-0A97-40E1-B951-AB5CE4454F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8E8AFB30-4550-48C6-8CCF-4F1C485D3CB5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
   <si>
     <t>Actions</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>44226</v>
@@ -467,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1">
         <v>43575</v>
@@ -484,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1">
         <v>43392</v>
@@ -501,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1">
         <v>43563</v>

--- a/Data/Input/Workitem.xlsx
+++ b/Data/Input/Workitem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayavignesh\Documents\UiPath\Acme_Worklist\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDACDF-0A97-40E1-B951-AB5CE4454F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F76EFE-89A8-4BEF-8C2E-CC968BE4457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8E8AFB30-4550-48C6-8CCF-4F1C485D3CB5}"/>
   </bookViews>
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1">
         <v>42907</v>

--- a/Data/Input/Workitem.xlsx
+++ b/Data/Input/Workitem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayavignesh\Documents\UiPath\Acme_Worklist\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F76EFE-89A8-4BEF-8C2E-CC968BE4457C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07B3DE-FD13-4444-A5A8-D48725B2024E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{8E8AFB30-4550-48C6-8CCF-4F1C485D3CB5}"/>
   </bookViews>
@@ -521,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1">
         <v>44117</v>
